--- a/BOM_Generator.xlsx
+++ b/BOM_Generator.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\btlf\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\btlf\OneDrive\Documents\GitHub\Eka-PGr-SignalGen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE9E049-1EE9-41B9-9FFB-3F3A6107BADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCF3A94-4964-4F3B-ACAA-F92F95634B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{989FA2D6-1581-4470-8D51-A9F5C31DB016}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11235" xr2:uid="{989FA2D6-1581-4470-8D51-A9F5C31DB016}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -303,7 +303,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +314,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="238"/>
@@ -343,8 +352,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -358,12 +368,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -698,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F03D75F-8B85-44C4-AA49-74880ED511BF}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,7 +791,7 @@
         <f>D3*G$1</f>
         <v>2</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3">
         <f t="shared" ref="H3:H7" si="0">E3*G3</f>
         <v>8.6639999999999997</v>
       </c>
@@ -812,7 +825,7 @@
         <f>D4*G$1</f>
         <v>2</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4">
         <f t="shared" si="0"/>
         <v>6.1520000000000001</v>
       </c>
@@ -846,7 +859,7 @@
         <f t="shared" ref="G5:G29" si="1">D5*G$1</f>
         <v>2</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5">
         <f t="shared" si="0"/>
         <v>2.7280000000000002</v>
       </c>
@@ -880,7 +893,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6">
         <f t="shared" si="0"/>
         <v>2.226</v>
       </c>
@@ -929,7 +942,7 @@
       <c r="C8" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8">
         <v>4</v>
       </c>
       <c r="E8">
@@ -942,7 +955,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8">
         <f>E8*G8</f>
         <v>6.2816000000000001</v>
       </c>
@@ -961,7 +974,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9">
         <f t="shared" ref="H9:H29" si="2">E9*G9</f>
         <v>0</v>
       </c>
@@ -989,7 +1002,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10">
         <f t="shared" si="2"/>
         <v>8.2319999999999993</v>
       </c>
@@ -1023,7 +1036,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11">
         <f t="shared" si="2"/>
         <v>1.458</v>
       </c>
@@ -1057,7 +1070,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12">
         <f t="shared" si="2"/>
         <v>1.278</v>
       </c>
@@ -1091,11 +1104,11 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13">
         <f t="shared" si="2"/>
         <v>1.5596000000000001</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="5" t="s">
         <v>78</v>
       </c>
       <c r="J13" s="6" t="s">
@@ -1110,7 +1123,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1123,7 +1136,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1136,7 +1149,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1164,7 +1177,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17">
         <f t="shared" si="2"/>
         <v>14.74</v>
       </c>
@@ -1211,7 +1224,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1224,7 +1237,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1237,7 +1250,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1250,7 +1263,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1263,7 +1276,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1276,7 +1289,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1289,7 +1302,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1302,7 +1315,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1315,7 +1328,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1328,7 +1341,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1341,13 +1354,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J13" r:id="rId1" xr:uid="{12E41B88-C7F8-4537-9A81-170817A636BD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BOM_Generator.xlsx
+++ b/BOM_Generator.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\btlf\OneDrive\Documents\GitHub\Eka-PGr-SignalGen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Eka-PGr-SignalGen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCF3A94-4964-4F3B-ACAA-F92F95634B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73557962-7136-4CAE-A23E-36A4DD180A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11235" xr2:uid="{989FA2D6-1581-4470-8D51-A9F5C31DB016}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{989FA2D6-1581-4470-8D51-A9F5C31DB016}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="160">
   <si>
     <t>lp.</t>
   </si>
@@ -297,13 +297,232 @@
   </si>
   <si>
     <t>B6252H5NPP3G50</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/08055a3r3cat2a/kondensatory-mlcc-smd/kyocera-avx/</t>
+  </si>
+  <si>
+    <t>Kondensator 3,3p</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>08055A3R3CAT2A</t>
+  </si>
+  <si>
+    <t>Rezystor 20k</t>
+  </si>
+  <si>
+    <t>R32</t>
+  </si>
+  <si>
+    <t>Kondensator 100n</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/cc0805kkx7r0bb104/kondensatory-mlcc-smd/yageo/</t>
+  </si>
+  <si>
+    <t>CC0805KKX7R0BB104</t>
+  </si>
+  <si>
+    <t>Kondensator 100u</t>
+  </si>
+  <si>
+    <t>UVY1E101MDD</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/uvy1e101mdd/kondensatory-elektrolityczne-tht/nichicon/</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>Kondensator 470p</t>
+  </si>
+  <si>
+    <t>08055A471JAT2A</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/08055a471jat2a/kondensatory-mlcc-smd/kyocera-avx/</t>
+  </si>
+  <si>
+    <t>Rezystor 0,2</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>Rezystor x</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>Cewka 100u</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/sbc4-101-102/dlawiki-pionowe/kemet/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/rlb0914-101kl/dlawiki-pionowe/bourns/</t>
+  </si>
+  <si>
+    <t>SBC4-101-102</t>
+  </si>
+  <si>
+    <t>RLB0914-101KL</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>Dioda 1N5818</t>
+  </si>
+  <si>
+    <t>1N5818-DC</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/1n5818-dc/diody-schottky-tht/dc-components/1n5818/</t>
+  </si>
+  <si>
+    <t>Dioda 1N4007</t>
+  </si>
+  <si>
+    <t>D3,D4,D5,D6</t>
+  </si>
+  <si>
+    <t>Potencjometr 1k</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/3305smd-1k/potencjometry-smd-jednoobrotowe/sr-passives/</t>
+  </si>
+  <si>
+    <t>3305SMD-1K</t>
+  </si>
+  <si>
+    <t>Kondensator 10u</t>
+  </si>
+  <si>
+    <t>C9, C10</t>
+  </si>
+  <si>
+    <t>CL21A106KAFN3NE</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/cl21a106kafn3ne/kondensatory-mlcc-smd/samsung/</t>
+  </si>
+  <si>
+    <t>Radial 5mm</t>
+  </si>
+  <si>
+    <t>Rezystor 100</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/rt0805fre07100rl/rezystory-smd/yageo/</t>
+  </si>
+  <si>
+    <t>RT0805FRE07100RL</t>
+  </si>
+  <si>
+    <t>C4,C6,C11,C12, C18, C19</t>
+  </si>
+  <si>
+    <t>ERJ6ENF2002V</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/erj6enf2002v/rezystory-smd/panasonic/</t>
+  </si>
+  <si>
+    <t>R33</t>
+  </si>
+  <si>
+    <t>R34</t>
+  </si>
+  <si>
+    <t>R35</t>
+  </si>
+  <si>
+    <t>Rezystor 1,5k</t>
+  </si>
+  <si>
+    <t>Rezystor 13k</t>
+  </si>
+  <si>
+    <t>Rezystor 27</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/ar0805-27r-0.1%25/rezystory-smd/viking/ar05btcw0270/</t>
+  </si>
+  <si>
+    <t>AR0805-27R-0.1%</t>
+  </si>
+  <si>
+    <t>R4, R5, R37</t>
+  </si>
+  <si>
+    <t>R6,R7,R39,R40</t>
+  </si>
+  <si>
+    <t>Dioda 1N4148</t>
+  </si>
+  <si>
+    <t>D7, D8</t>
+  </si>
+  <si>
+    <t>1N4148W-AQ-DIO</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/1n4148w-aq-dio/diody-uniwersalne-smd/diotec-semiconductor/1n4148w-aq/</t>
+  </si>
+  <si>
+    <t>DO41</t>
+  </si>
+  <si>
+    <t>Rezystor 1k</t>
+  </si>
+  <si>
+    <t>R36, R38</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/erj6enf1001v/rezystory-smd/panasonic/</t>
+  </si>
+  <si>
+    <t>ERJ6ENF1001V</t>
+  </si>
+  <si>
+    <t>Rezystor 3,3</t>
+  </si>
+  <si>
+    <t>R41, R42</t>
+  </si>
+  <si>
+    <t>CRCW25123R30JNTHBC</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/crcw25123r30jnthbc/rezystory-smd/vishay/</t>
+  </si>
+  <si>
+    <t>Bezpiecznik topikowy</t>
+  </si>
+  <si>
+    <t>Gniazdo bezpiecznikowe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,8 +547,15 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,6 +565,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,7 +588,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -374,6 +606,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -709,26 +957,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F03D75F-8B85-44C4-AA49-74880ED511BF}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="10" max="10" width="111.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" customWidth="1"/>
+    <col min="10" max="10" width="111.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F1" s="1" t="s">
         <v>41</v>
       </c>
@@ -736,7 +984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -768,7 +1016,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -802,7 +1050,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -836,7 +1084,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -859,9 +1107,9 @@
         <f t="shared" ref="G5:G29" si="1">D5*G$1</f>
         <v>2</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="e">
         <f t="shared" si="0"/>
-        <v>2.7280000000000002</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I5" t="s">
         <v>31</v>
@@ -870,7 +1118,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -893,9 +1141,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="e">
         <f t="shared" si="0"/>
-        <v>2.226</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I6" t="s">
         <v>45</v>
@@ -904,7 +1152,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -921,9 +1169,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="3" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>45</v>
@@ -932,7 +1180,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -966,7 +1214,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -979,7 +1227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1013,7 +1261,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1047,7 +1295,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1081,7 +1329,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1115,108 +1363,174 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0.63049999999999995</v>
+      </c>
+      <c r="F14" t="s">
+        <v>90</v>
+      </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.2609999999999999</v>
+      </c>
+      <c r="I14" s="7">
+        <v>805</v>
+      </c>
+      <c r="J14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>0.314</v>
+      </c>
+      <c r="F15" t="s">
+        <v>95</v>
+      </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5.6520000000000001</v>
+      </c>
+      <c r="I15" s="7">
+        <v>805</v>
+      </c>
+      <c r="J15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="F16" t="s">
+        <v>97</v>
+      </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6.6480000000000006</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>7.37</v>
+        <v>0.53</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G17:G18" si="3">D17*G$1</f>
         <v>2</v>
       </c>
       <c r="H17">
-        <f t="shared" si="2"/>
-        <v>14.74</v>
-      </c>
-      <c r="I17" t="s">
-        <v>83</v>
+        <f t="shared" ref="H17:H18" si="4">E17*G17</f>
+        <v>1.06</v>
+      </c>
+      <c r="I17" s="2">
+        <v>805</v>
       </c>
       <c r="J17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3">
-        <v>9.75</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="B18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="F18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
+        <v>4</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.548</v>
+      </c>
+      <c r="I18" s="2">
+        <v>805</v>
+      </c>
+      <c r="J18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1229,7 +1543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1242,127 +1556,578 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="G21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="10">
+        <v>1</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="10">
+        <f>D21*G$1</f>
+        <v>2</v>
+      </c>
+      <c r="H21" s="10">
+        <f>E21*G21</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="11">
+        <v>805</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="G22">
+      <c r="B22" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="H22" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I22" s="12">
+        <v>805</v>
+      </c>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="G23">
+      <c r="B23" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="H23" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I23" s="12">
+        <v>805</v>
+      </c>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="G24">
+      <c r="B24" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="10">
+        <v>3</v>
+      </c>
+      <c r="E24" s="10">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H24">
+        <v>6</v>
+      </c>
+      <c r="H24" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6.7200000000000006</v>
+      </c>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="G25">
+      <c r="B25" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="10">
+        <v>4</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0.26</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H25">
+        <v>8</v>
+      </c>
+      <c r="H25" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2.08</v>
+      </c>
+      <c r="I25" s="11">
+        <v>805</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="G26">
+      <c r="B26" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="10">
+        <v>1</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0.218</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="H26" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.436</v>
+      </c>
+      <c r="I26" s="11">
+        <v>805</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="G27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9">
+        <f t="shared" ref="G26:G27" si="5">D27*G$1</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="9">
+        <f t="shared" ref="H26:H27" si="6">E27*G27</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="13">
+        <v>805</v>
+      </c>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="G28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9">
+        <f t="shared" ref="G28:G30" si="7">D28*G$1</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="9">
+        <f t="shared" ref="H28:H30" si="8">E28*G28</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="13">
+        <v>805</v>
+      </c>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="G29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="B29" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="F29" t="s">
+        <v>142</v>
+      </c>
+      <c r="G29" s="10">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="H29" s="10">
+        <f t="shared" si="8"/>
+        <v>1.1639999999999999</v>
+      </c>
+      <c r="I29" s="2">
+        <v>805</v>
+      </c>
+      <c r="J29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="F30" t="s">
+        <v>153</v>
+      </c>
+      <c r="G30" s="10">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="H30" s="10">
+        <f t="shared" si="8"/>
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="I30" s="2">
+        <v>805</v>
+      </c>
+      <c r="J30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>0.61</v>
+      </c>
+      <c r="F31" t="s">
+        <v>156</v>
+      </c>
+      <c r="G31" s="10">
+        <f t="shared" ref="G31:G32" si="9">D31*G$1</f>
+        <v>4</v>
+      </c>
+      <c r="H31" s="10">
+        <f t="shared" ref="H31:H32" si="10">E31*G31</f>
+        <v>2.44</v>
+      </c>
+      <c r="I31" s="2">
+        <v>2512</v>
+      </c>
+      <c r="J31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G32" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B33" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" s="10">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1.29</v>
+      </c>
+      <c r="F33" t="s">
+        <v>117</v>
+      </c>
+      <c r="G33">
+        <f>D33*G$1</f>
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <f>E33*G33</f>
+        <v>2.58</v>
+      </c>
+      <c r="I33" t="s">
+        <v>149</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="10">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="F34" t="s">
+        <v>61</v>
+      </c>
+      <c r="G34">
+        <f>D34*G$1</f>
+        <v>8</v>
+      </c>
+      <c r="H34">
+        <f>E34*G34</f>
+        <v>5.8239999999999998</v>
+      </c>
+      <c r="I34" t="s">
+        <v>63</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="10">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>0.159</v>
+      </c>
+      <c r="F35" t="s">
+        <v>147</v>
+      </c>
+      <c r="G35">
+        <f>D35*G$1</f>
+        <v>4</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ref="H33:H36" si="11">E35*G35</f>
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="I35" t="s">
+        <v>63</v>
+      </c>
+      <c r="J35" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G36">
+        <f>D36*G$1</f>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="F37" t="s">
+        <v>113</v>
+      </c>
+      <c r="G37">
+        <f>D37*G$1</f>
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <f>E37*G37</f>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="J37" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3">
+        <v>1.39</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G38" s="3">
+        <f>D38*G$1</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="3">
+        <f>E38*G38</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>7.37</v>
+      </c>
+      <c r="F39" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39">
+        <f>D39*G$1</f>
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <f>E39*G39</f>
+        <v>14.74</v>
+      </c>
+      <c r="I39" t="s">
+        <v>83</v>
+      </c>
+      <c r="J39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3">
+        <v>9.75</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G40" s="3">
+        <f>D40*G$1</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="3">
+        <f>E40*G40</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J13" r:id="rId1" xr:uid="{12E41B88-C7F8-4537-9A81-170817A636BD}"/>
+    <hyperlink ref="J34" r:id="rId2" xr:uid="{635A23AA-6815-47D2-B4A6-DACD2A386066}"/>
+    <hyperlink ref="J33" r:id="rId3" xr:uid="{DB9E563E-4AB2-40D8-AF10-66E84B63948D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BOM_Generator.xlsx
+++ b/BOM_Generator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Eka-PGr-SignalGen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73557962-7136-4CAE-A23E-36A4DD180A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F508C8ED-80DC-4A47-BC57-1CA337B7127C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{989FA2D6-1581-4470-8D51-A9F5C31DB016}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="172">
   <si>
     <t>lp.</t>
   </si>
@@ -356,9 +356,6 @@
     <t>?</t>
   </si>
   <si>
-    <t>R2</t>
-  </si>
-  <si>
     <t>R3</t>
   </si>
   <si>
@@ -413,15 +410,6 @@
     <t>Kondensator 10u</t>
   </si>
   <si>
-    <t>C9, C10</t>
-  </si>
-  <si>
-    <t>CL21A106KAFN3NE</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/pl/details/cl21a106kafn3ne/kondensatory-mlcc-smd/samsung/</t>
-  </si>
-  <si>
     <t>Radial 5mm</t>
   </si>
   <si>
@@ -452,12 +440,6 @@
     <t>R35</t>
   </si>
   <si>
-    <t>Rezystor 1,5k</t>
-  </si>
-  <si>
-    <t>Rezystor 13k</t>
-  </si>
-  <si>
     <t>Rezystor 27</t>
   </si>
   <si>
@@ -516,6 +498,60 @@
   </si>
   <si>
     <t>Gniazdo bezpiecznikowe</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Tranzystor BC817</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/bc817-qr/tranzystory-npn-smd/nexperia/</t>
+  </si>
+  <si>
+    <t>BC817-QR</t>
+  </si>
+  <si>
+    <t>SOT23</t>
+  </si>
+  <si>
+    <t>Przekaźnik</t>
+  </si>
+  <si>
+    <t>LEG-1A-5</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/leg-1a-5/przekazniki-elektromagn-miniaturowe/recoy-rayex-electronics/leg1a-5/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/erj6enf1802v/rezystory-smd/panasonic/</t>
+  </si>
+  <si>
+    <t>Rezystor 18k</t>
+  </si>
+  <si>
+    <t>ERJ6ENF1802V</t>
+  </si>
+  <si>
+    <t>Rezystor 2k 0,1%</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/grc00aa1001htnl/kondensatory-elektrolityczne-tht/vishay/</t>
+  </si>
+  <si>
+    <t>GRC00AA1001HTNL</t>
+  </si>
+  <si>
+    <t>5x11mm</t>
+  </si>
+  <si>
+    <t>Rezystor 100 1w</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/crcw2512100rjnthbc/rezystory-smd/vishay/</t>
+  </si>
+  <si>
+    <t>CRCW2512100RJNTHBC</t>
   </si>
 </sst>
 </file>
@@ -609,19 +645,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -957,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F03D75F-8B85-44C4-AA49-74880ED511BF}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1104,7 +1138,7 @@
         <v>39</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G29" si="1">D5*G$1</f>
+        <f t="shared" ref="G5:G26" si="1">D5*G$1</f>
         <v>2</v>
       </c>
       <c r="H5" t="e">
@@ -1223,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <f t="shared" ref="H9:H29" si="2">E9*G9</f>
+        <f t="shared" ref="H9:H26" si="2">E9*G9</f>
         <v>0</v>
       </c>
     </row>
@@ -1424,7 +1458,7 @@
       <c r="I15" s="7">
         <v>805</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="10" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1436,7 +1470,7 @@
         <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D16">
         <v>6</v>
@@ -1456,7 +1490,7 @@
         <v>6.6480000000000006</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J16" t="s">
         <v>98</v>
@@ -1482,11 +1516,11 @@
         <v>101</v>
       </c>
       <c r="G17">
-        <f t="shared" ref="G17:G18" si="3">D17*G$1</f>
+        <f t="shared" ref="G17" si="3">D17*G$1</f>
         <v>2</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17:H18" si="4">E17*G17</f>
+        <f t="shared" ref="H17" si="4">E17*G17</f>
         <v>1.06</v>
       </c>
       <c r="I17" s="2">
@@ -1501,33 +1535,30 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E18">
-        <v>0.38700000000000001</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="F18" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>1.548</v>
-      </c>
-      <c r="I18" s="2">
-        <v>805</v>
+        <v>2.6720000000000002</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="J18" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1560,251 +1591,236 @@
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="10">
-        <v>1</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="G21" s="10">
-        <f>D21*G$1</f>
-        <v>2</v>
-      </c>
-      <c r="H21" s="10">
-        <f>E21*G21</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="11">
-        <v>805</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>105</v>
-      </c>
+      <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" s="8">
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H22" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="12">
+      <c r="F22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22">
+        <f>D22*G$1</f>
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <f>E22*G22</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
         <v>805</v>
       </c>
-      <c r="J22" s="8"/>
+      <c r="J22" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D23" s="8">
+      <c r="B23" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="11">
         <v>1</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8">
+      <c r="E23" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G23" s="11">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="I23" s="13">
         <v>805</v>
       </c>
-      <c r="J23" s="8"/>
+      <c r="J23" s="11" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D24" s="10">
+      <c r="B24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24">
         <v>3</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24">
         <v>1.1200000000000001</v>
       </c>
-      <c r="F24" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="G24" s="10">
+      <c r="F24" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24">
         <f t="shared" si="2"/>
         <v>6.7200000000000006</v>
       </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10" t="s">
-        <v>122</v>
+      <c r="I24" t="s">
+        <v>105</v>
+      </c>
+      <c r="J24" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="D25" s="10">
+      <c r="B25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25">
         <v>4</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25">
         <v>0.26</v>
       </c>
-      <c r="F25" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="G25" s="10">
+      <c r="F25" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25">
         <f t="shared" si="2"/>
         <v>2.08</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="2">
         <v>805</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26">
         <v>0.218</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="G26" s="10">
+      <c r="F26" t="s">
+        <v>129</v>
+      </c>
+      <c r="G26">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26">
         <f t="shared" si="2"/>
         <v>0.436</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="2">
         <v>805</v>
       </c>
-      <c r="J26" s="10" t="s">
-        <v>134</v>
+      <c r="J26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9">
-        <f t="shared" ref="G26:G27" si="5">D27*G$1</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="9">
-        <f t="shared" ref="H26:H27" si="6">E27*G27</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="13">
+      <c r="B27" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8">
+        <f t="shared" ref="G27" si="5">D27*G$1</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="8">
+        <f t="shared" ref="H27" si="6">E27*G27</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="9">
         <v>805</v>
       </c>
-      <c r="J27" s="9"/>
+      <c r="J27" s="8"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9">
+      <c r="B28" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8">
         <f t="shared" ref="G28:G30" si="7">D28*G$1</f>
         <v>0</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="8">
         <f t="shared" ref="H28:H30" si="8">E28*G28</f>
         <v>0</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I28" s="9">
         <v>805</v>
       </c>
-      <c r="J28" s="9"/>
+      <c r="J28" s="8"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>137</v>
+      <c r="B29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" t="s">
+        <v>133</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1813,13 +1829,13 @@
         <v>0.58199999999999996</v>
       </c>
       <c r="F29" t="s">
-        <v>142</v>
-      </c>
-      <c r="G29" s="10">
+        <v>136</v>
+      </c>
+      <c r="G29">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29">
         <f t="shared" si="8"/>
         <v>1.1639999999999999</v>
       </c>
@@ -1827,15 +1843,15 @@
         <v>805</v>
       </c>
       <c r="J29" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>151</v>
+      <c r="B30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" t="s">
+        <v>145</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -1844,13 +1860,13 @@
         <v>0.13300000000000001</v>
       </c>
       <c r="F30" t="s">
-        <v>153</v>
-      </c>
-      <c r="G30" s="10">
+        <v>147</v>
+      </c>
+      <c r="G30">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30">
         <f t="shared" si="8"/>
         <v>0.53200000000000003</v>
       </c>
@@ -1858,15 +1874,15 @@
         <v>805</v>
       </c>
       <c r="J30" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>155</v>
+      <c r="B31" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" t="s">
+        <v>149</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -1875,13 +1891,13 @@
         <v>0.61</v>
       </c>
       <c r="F31" t="s">
-        <v>156</v>
-      </c>
-      <c r="G31" s="10">
+        <v>150</v>
+      </c>
+      <c r="G31">
         <f t="shared" ref="G31:G32" si="9">D31*G$1</f>
         <v>4</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31">
         <f t="shared" ref="H31:H32" si="10">E31*G31</f>
         <v>2.44</v>
       </c>
@@ -1889,188 +1905,160 @@
         <v>2512</v>
       </c>
       <c r="J31" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G32" s="10">
+      <c r="B32" t="s">
+        <v>165</v>
+      </c>
+      <c r="G32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="10" t="s">
+      <c r="B33" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="I33" s="2">
+        <v>2512</v>
+      </c>
+      <c r="J33" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1.29</v>
+      </c>
+      <c r="F35" t="s">
         <v>116</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D33" s="10">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>1.29</v>
-      </c>
-      <c r="F33" t="s">
-        <v>117</v>
-      </c>
-      <c r="G33">
-        <f>D33*G$1</f>
-        <v>2</v>
-      </c>
-      <c r="H33">
-        <f>E33*G33</f>
-        <v>2.58</v>
-      </c>
-      <c r="I33" t="s">
-        <v>149</v>
-      </c>
-      <c r="J33" s="14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D34" s="10">
-        <v>4</v>
-      </c>
-      <c r="E34">
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="F34" t="s">
-        <v>61</v>
-      </c>
-      <c r="G34">
-        <f>D34*G$1</f>
-        <v>8</v>
-      </c>
-      <c r="H34">
-        <f>E34*G34</f>
-        <v>5.8239999999999998</v>
-      </c>
-      <c r="I34" t="s">
-        <v>63</v>
-      </c>
-      <c r="J34" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D35" s="10">
-        <v>2</v>
-      </c>
-      <c r="E35">
-        <v>0.159</v>
-      </c>
-      <c r="F35" t="s">
-        <v>147</v>
       </c>
       <c r="G35">
         <f>D35*G$1</f>
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <f>E35*G35</f>
+        <v>2.58</v>
+      </c>
+      <c r="I35" t="s">
+        <v>143</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36">
         <v>4</v>
       </c>
-      <c r="H35">
-        <f t="shared" ref="H33:H36" si="11">E35*G35</f>
-        <v>0.63600000000000001</v>
-      </c>
-      <c r="I35" t="s">
-        <v>63</v>
-      </c>
-      <c r="J35" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E36">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="F36" t="s">
+        <v>61</v>
+      </c>
       <c r="G36">
         <f>D36*G$1</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H36">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>E36*G36</f>
+        <v>5.8239999999999998</v>
+      </c>
+      <c r="I36" t="s">
+        <v>63</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37">
-        <v>4.8499999999999996</v>
+        <v>0.159</v>
       </c>
       <c r="F37" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="G37">
         <f>D37*G$1</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H37">
-        <f>E37*G37</f>
-        <v>9.6999999999999993</v>
+        <f t="shared" ref="H37:H38" si="11">E37*G37</f>
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="I37" t="s">
+        <v>63</v>
       </c>
       <c r="J37" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3">
-        <v>1.39</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G38" s="3">
+      <c r="G38">
         <f>D38*G$1</f>
         <v>0</v>
       </c>
-      <c r="H38" s="3">
-        <f>E38*G38</f>
-        <v>0</v>
-      </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3" t="s">
-        <v>112</v>
+      <c r="H38">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39">
-        <v>7.37</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="F39" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="G39">
         <f>D39*G$1</f>
@@ -2078,13 +2066,10 @@
       </c>
       <c r="H39">
         <f>E39*G39</f>
-        <v>14.74</v>
-      </c>
-      <c r="I39" t="s">
-        <v>83</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="J39" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
@@ -2092,10 +2077,10 @@
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3">
-        <v>9.75</v>
+        <v>1.39</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="G40" s="3">
         <f>D40*G$1</f>
@@ -2105,29 +2090,193 @@
         <f>E40*G40</f>
         <v>0</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="I40" s="3"/>
+      <c r="J40" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>7.37</v>
+      </c>
+      <c r="F41" t="s">
+        <v>82</v>
+      </c>
+      <c r="G41">
+        <f>D41*G$1</f>
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <f>E41*G41</f>
+        <v>14.74</v>
+      </c>
+      <c r="I41" t="s">
         <v>83</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="J41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="E42" s="3">
+        <v>9.75</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G42" s="3">
+        <f>D42*G$1</f>
+        <v>2</v>
+      </c>
+      <c r="H42" s="3">
+        <f>E42*G42</f>
+        <v>19.5</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J42" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G43" s="11">
+        <f>D43*G$1</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="11">
+        <f>E43*G43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" s="11">
+        <v>0.111</v>
+      </c>
+      <c r="F44" t="s">
+        <v>157</v>
+      </c>
+      <c r="G44" s="11">
+        <f>D44*G$1</f>
+        <v>2</v>
+      </c>
+      <c r="H44" s="11">
+        <f t="shared" ref="H44:H49" si="12">E44*G44</f>
+        <v>0.222</v>
+      </c>
+      <c r="I44" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
+      <c r="J44" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
         <v>159</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" s="11">
+        <v>1.9219999999999999</v>
+      </c>
+      <c r="F45" t="s">
+        <v>160</v>
+      </c>
+      <c r="G45" s="11">
+        <f>D45*G$1</f>
+        <v>2</v>
+      </c>
+      <c r="H45" s="11">
+        <f t="shared" si="12"/>
+        <v>3.8439999999999999</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G46" s="11">
+        <f>D46*G$1</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G47" s="11">
+        <f>D47*G$1</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>152</v>
+      </c>
+      <c r="G48" s="11">
+        <f>D48*G$1</f>
+        <v>0</v>
+      </c>
+      <c r="H48" s="11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>153</v>
+      </c>
+      <c r="G49" s="11">
+        <f>D49*G$1</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="11">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J13" r:id="rId1" xr:uid="{12E41B88-C7F8-4537-9A81-170817A636BD}"/>
-    <hyperlink ref="J34" r:id="rId2" xr:uid="{635A23AA-6815-47D2-B4A6-DACD2A386066}"/>
-    <hyperlink ref="J33" r:id="rId3" xr:uid="{DB9E563E-4AB2-40D8-AF10-66E84B63948D}"/>
+    <hyperlink ref="J36" r:id="rId2" xr:uid="{635A23AA-6815-47D2-B4A6-DACD2A386066}"/>
+    <hyperlink ref="J35" r:id="rId3" xr:uid="{DB9E563E-4AB2-40D8-AF10-66E84B63948D}"/>
+    <hyperlink ref="J15" r:id="rId4" xr:uid="{58BB7CC9-672F-4A79-9AA1-37DECE891A0B}"/>
+    <hyperlink ref="J45" r:id="rId5" xr:uid="{36586955-2EFD-4B4B-A020-E71978A432A8}"/>
+    <hyperlink ref="J25" r:id="rId6" xr:uid="{449F9AD2-5BA8-4B5D-B182-EAC19B838340}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
